--- a/results/partialCoop_EUandOthers_20statRateCond_withForeign.xlsx
+++ b/results/partialCoop_EUandOthers_20statRateCond_withForeign.xlsx
@@ -869,13 +869,13 @@
         <v>2191562303.650852</v>
       </c>
       <c r="G13" t="n">
-        <v>384924397.166495</v>
+        <v>384793327.4450649</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2576486700.817347</v>
+        <v>2576355631.095917</v>
       </c>
     </row>
     <row r="14">
@@ -902,13 +902,13 @@
         <v>826583376.3415316</v>
       </c>
       <c r="G14" t="n">
-        <v>137271707.3897412</v>
+        <v>137225148.4560515</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3751560527.97131</v>
+        <v>3751513969.03762</v>
       </c>
     </row>
     <row r="15">
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2604500659.16819</v>
+        <v>2294682533.419445</v>
       </c>
       <c r="G16" t="n">
-        <v>235749854.0230367</v>
+        <v>235668510.4960317</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4850812815.605705</v>
+        <v>4540913346.329955</v>
       </c>
     </row>
     <row r="17">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>12947540.93305367</v>
+        <v>12942962.59962359</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>41757968.9677247</v>
+        <v>41753390.63429462</v>
       </c>
     </row>
     <row r="22">
@@ -1628,13 +1628,13 @@
         <v>2089590478.182052</v>
       </c>
       <c r="G36" t="n">
-        <v>701108693.9162601</v>
+        <v>700914544.9107101</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2790699172.098312</v>
+        <v>2790505023.092762</v>
       </c>
     </row>
     <row r="37">
@@ -1991,13 +1991,13 @@
         <v>5451031606.8659</v>
       </c>
       <c r="G47" t="n">
-        <v>34149010.12508743</v>
+        <v>34140411.06095146</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>5485180616.990988</v>
+        <v>5485172017.926851</v>
       </c>
     </row>
     <row r="48">
@@ -2021,16 +2021,16 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>296283909.0755829</v>
+        <v>296178026.8908914</v>
       </c>
       <c r="G48" t="n">
-        <v>2981704.865029847</v>
+        <v>2980653.061684008</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>311085673.2660515</v>
+        <v>310978739.2780141</v>
       </c>
     </row>
     <row r="49">
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>90537.30873756681</v>
+        <v>90540.19425228065</v>
       </c>
       <c r="D49" t="n">
         <v>230335606.2153436</v>
@@ -2054,16 +2054,16 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>82426228.66231745</v>
+        <v>82396736.98180892</v>
       </c>
       <c r="G49" t="n">
-        <v>103706634.7587528</v>
+        <v>103670106.1920239</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>416559006.9451514</v>
+        <v>416492989.5834287</v>
       </c>
     </row>
     <row r="50">
@@ -2090,13 +2090,13 @@
         <v>10217146574.60507</v>
       </c>
       <c r="G50" t="n">
-        <v>941278931.2008634</v>
+        <v>940969567.1250327</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>21332755944.61021</v>
+        <v>21332446580.53439</v>
       </c>
     </row>
     <row r="51">
@@ -2123,13 +2123,13 @@
         <v>2162513354.411344</v>
       </c>
       <c r="G51" t="n">
-        <v>60133782.60788776</v>
+        <v>60112652.55418733</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>3795407488.466817</v>
+        <v>3795386358.413117</v>
       </c>
     </row>
     <row r="52">
@@ -2288,13 +2288,13 @@
         <v>1875366743.291695</v>
       </c>
       <c r="G56" t="n">
-        <v>403985709.530432</v>
+        <v>403861517.6024269</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>5074125178.771226</v>
+        <v>5074000986.843221</v>
       </c>
     </row>
     <row r="57">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>107300540.2000094</v>
+        <v>107300540.2000116</v>
       </c>
       <c r="D57" t="n">
         <v>8409755.638419209</v>
@@ -2318,16 +2318,16 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1131.850228557421</v>
+        <v>1131.445715262</v>
       </c>
       <c r="G57" t="n">
-        <v>3817599.98629306</v>
+        <v>3816235.700841014</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>119529027.6749503</v>
+        <v>119527662.9849871</v>
       </c>
     </row>
     <row r="58">
@@ -2420,13 +2420,13 @@
         <v>421239804.2309884</v>
       </c>
       <c r="G60" t="n">
-        <v>45748889.5327163</v>
+        <v>45733048.0399915</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1678586819.234277</v>
+        <v>1678570977.741552</v>
       </c>
     </row>
     <row r="61">
@@ -2486,13 +2486,13 @@
         <v>5418411701.702073</v>
       </c>
       <c r="G62" t="n">
-        <v>597477049.8317641</v>
+        <v>597279227.723446</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>9232692007.468594</v>
+        <v>9232494185.360275</v>
       </c>
     </row>
     <row r="63">
@@ -2552,13 +2552,13 @@
         <v>5177797295.531481</v>
       </c>
       <c r="G64" t="n">
-        <v>1772563489.043267</v>
+        <v>1772048516.863016</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>6950360784.574747</v>
+        <v>6949845812.394497</v>
       </c>
     </row>
     <row r="65">
@@ -2615,16 +2615,16 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>53395758.35301419</v>
+        <v>53376676.45428631</v>
       </c>
       <c r="G66" t="n">
-        <v>3016428.293237808</v>
+        <v>3016129.469313347</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>56412186.64625199</v>
+        <v>56392805.92359966</v>
       </c>
     </row>
     <row r="67">
@@ -2750,13 +2750,13 @@
         <v>103808408.9572117</v>
       </c>
       <c r="G70" t="n">
-        <v>24724145.9387685</v>
+        <v>24715342.59038633</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>250793712.2183828</v>
+        <v>250784908.8700007</v>
       </c>
     </row>
     <row r="71">
@@ -2948,13 +2948,13 @@
         <v>3521255259.4</v>
       </c>
       <c r="G76" t="n">
-        <v>1132416144.561677</v>
+        <v>1132188712.976776</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>4653671403.961677</v>
+        <v>4653443972.376776</v>
       </c>
     </row>
     <row r="77">
@@ -3014,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>12352971.3647161</v>
+        <v>12348556.81652275</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>46444059.89644898</v>
+        <v>46439645.34825563</v>
       </c>
     </row>
     <row r="79">
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>565082761.8001571</v>
+        <v>565082765.5200381</v>
       </c>
       <c r="D80" t="n">
         <v>150448858.6162017</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>87286563.32366437</v>
+        <v>87255324.52835703</v>
       </c>
       <c r="G80" t="n">
-        <v>66535939.10137189</v>
+        <v>66514852.14212434</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>869354122.841395</v>
+        <v>869301800.8067211</v>
       </c>
     </row>
     <row r="81">
@@ -3146,13 +3146,13 @@
         <v>180391379.5159</v>
       </c>
       <c r="G82" t="n">
-        <v>11323163.39094735</v>
+        <v>11319996.90030723</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>191714542.9068474</v>
+        <v>191711376.4162073</v>
       </c>
     </row>
     <row r="83">
@@ -3212,13 +3212,13 @@
         <v>12252873710.93849</v>
       </c>
       <c r="G84" t="n">
-        <v>401674469.1532239</v>
+        <v>401539328.7846603</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>16938087394.18217</v>
+        <v>16937952253.8136</v>
       </c>
     </row>
     <row r="85">
@@ -3377,13 +3377,13 @@
         <v>3620058858.934917</v>
       </c>
       <c r="G89" t="n">
-        <v>430828805.5244618</v>
+        <v>430687883.0744947</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>7056561589.995509</v>
+        <v>7056420667.545542</v>
       </c>
     </row>
     <row r="90">
@@ -3440,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>180823143.8144658</v>
+        <v>180758523.5332983</v>
       </c>
       <c r="G91" t="n">
-        <v>7664881.786035125</v>
+        <v>7662152.424682762</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>188488025.6005009</v>
+        <v>188420675.9579811</v>
       </c>
     </row>
     <row r="92">
@@ -3509,13 +3509,13 @@
         <v>3813626854.655982</v>
       </c>
       <c r="G93" t="n">
-        <v>443325949.9180859</v>
+        <v>443175618.5868766</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>4256952804.574069</v>
+        <v>4256802473.242859</v>
       </c>
     </row>
     <row r="94">
@@ -3674,13 +3674,13 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>225057064.4803922</v>
+        <v>224977861.0277504</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>225057064.4803922</v>
+        <v>224977861.0277504</v>
       </c>
     </row>
     <row r="99">
@@ -3902,16 +3902,16 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>51541948.04045695</v>
+        <v>51523528.63294066</v>
       </c>
       <c r="G105" t="n">
-        <v>1742650.507458419</v>
+        <v>1742131.570641271</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>53284598.54791537</v>
+        <v>53265660.20358194</v>
       </c>
     </row>
     <row r="106">
@@ -4004,13 +4004,13 @@
         <v>1031132.31895</v>
       </c>
       <c r="G108" t="n">
-        <v>5110873.185779571</v>
+        <v>5109046.726758289</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>44008319.8711338</v>
+        <v>44006493.41211252</v>
       </c>
     </row>
     <row r="109">
@@ -4037,13 +4037,13 @@
         <v>4476135347.038216</v>
       </c>
       <c r="G109" t="n">
-        <v>110175751.8727237</v>
+        <v>110142383.8050579</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>7767365310.514588</v>
+        <v>7767331942.446922</v>
       </c>
     </row>
     <row r="110">
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>164313933.3017717</v>
+        <v>164313933.3020834</v>
       </c>
       <c r="D110" t="n">
         <v>26010754.65499776</v>
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>85959.13050162437</v>
+        <v>85928.40771124304</v>
       </c>
       <c r="G110" t="n">
-        <v>2827472.530987191</v>
+        <v>2826462.084724111</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>193238119.6182583</v>
+        <v>193237078.4495165</v>
       </c>
     </row>
     <row r="111">
@@ -4430,16 +4430,16 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>51124053.14187074</v>
+        <v>51105783.07633179</v>
       </c>
       <c r="G121" t="n">
-        <v>8373497.470490611</v>
+        <v>8370505.106932575</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>168520191.4675471</v>
+        <v>168498929.0384501</v>
       </c>
     </row>
     <row r="122">
@@ -4697,13 +4697,13 @@
         <v>924691864.6264492</v>
       </c>
       <c r="G129" t="n">
-        <v>142650128.5784804</v>
+        <v>142616999.4250467</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1067341993.20493</v>
+        <v>1067308864.051496</v>
       </c>
     </row>
     <row r="130">
@@ -4817,7 +4817,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2502804674.249134</v>
+        <v>1290552412.996203</v>
       </c>
       <c r="D133" t="n">
         <v>1983589528.839027</v>
@@ -4829,13 +4829,13 @@
         <v>3218237842.638599</v>
       </c>
       <c r="G133" t="n">
-        <v>470033762.4942981</v>
+        <v>469887896.6837692</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>8174665808.221058</v>
+        <v>6962267681.157599</v>
       </c>
     </row>
     <row r="134">
@@ -4928,13 +4928,13 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>63465373.21669179</v>
+        <v>63443116.01996559</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>63465373.21669179</v>
+        <v>63443116.01996559</v>
       </c>
     </row>
     <row r="137">
@@ -5279,7 +5279,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4031323080.766756</v>
+        <v>4031323091.636458</v>
       </c>
       <c r="D147" t="n">
         <v>658415208.1593025</v>
@@ -5288,16 +5288,16 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>83707053.97851485</v>
+        <v>83677007.06257923</v>
       </c>
       <c r="G147" t="n">
-        <v>193491538.3726219</v>
+        <v>193429393.9590493</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>4966936881.277194</v>
+        <v>4966844700.817389</v>
       </c>
     </row>
     <row r="148">
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>222906.0974928759</v>
+        <v>222913.2017334712</v>
       </c>
       <c r="D149" t="n">
         <v>2837951661.945522</v>
@@ -5354,16 +5354,16 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>75683311.21377133</v>
+        <v>75656177.70855384</v>
       </c>
       <c r="G149" t="n">
-        <v>87257594.50343226</v>
+        <v>87228876.02712888</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>3001115473.760218</v>
+        <v>3001059628.882938</v>
       </c>
     </row>
     <row r="150">
@@ -5423,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>8877057.870495845</v>
+        <v>8873947.554106792</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>8877057.870495845</v>
+        <v>8873947.554106792</v>
       </c>
     </row>
     <row r="152">
@@ -5489,13 +5489,13 @@
         <v>1648004688.212083</v>
       </c>
       <c r="G153" t="n">
-        <v>64687715.54041293</v>
+        <v>64667039.55700521</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>2002820080.359476</v>
+        <v>2002799404.376068</v>
       </c>
     </row>
     <row r="154">
@@ -5654,13 +5654,13 @@
         <v>879364677.5498993</v>
       </c>
       <c r="G158" t="n">
-        <v>1322846294.437757</v>
+        <v>1322548150.432007</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>2202210971.987657</v>
+        <v>2201912827.981907</v>
       </c>
     </row>
     <row r="159">
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>31.8871637419285</v>
+        <v>31.88818001777592</v>
       </c>
       <c r="D161" t="n">
         <v>80799421.41225857</v>
@@ -5750,16 +5750,16 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>15714114.41766413</v>
+        <v>15708498.69439514</v>
       </c>
       <c r="G161" t="n">
-        <v>38322104.85313048</v>
+        <v>38308483.31588995</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>134835672.5702169</v>
+        <v>134816435.3107237</v>
       </c>
     </row>
     <row r="162">
@@ -5786,13 +5786,13 @@
         <v>740048.7312050576</v>
       </c>
       <c r="G162" t="n">
-        <v>7552551.90054122</v>
+        <v>7549852.86535662</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>41021756.6738167</v>
+        <v>41019057.6386321</v>
       </c>
     </row>
     <row r="163">
@@ -5819,13 +5819,13 @@
         <v>2731420631.153298</v>
       </c>
       <c r="G163" t="n">
-        <v>142175621.5119554</v>
+        <v>142126220.9549497</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>3497632312.217694</v>
+        <v>3497582911.660688</v>
       </c>
     </row>
     <row r="164">
@@ -7172,13 +7172,13 @@
         <v>1722654285.431804</v>
       </c>
       <c r="G13" t="n">
-        <v>299453368.2999967</v>
+        <v>299343250.1253629</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2022107653.731801</v>
+        <v>2021997535.557167</v>
       </c>
     </row>
     <row r="14">
@@ -7196,7 +7196,7 @@
         <v>871751267.89247</v>
       </c>
       <c r="D14" t="n">
-        <v>714766412.0522585</v>
+        <v>714420470.4278558</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7205,13 +7205,13 @@
         <v>432699893.0129533</v>
       </c>
       <c r="G14" t="n">
-        <v>106818089.8480905</v>
+        <v>106778973.3783607</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2126035662.805772</v>
+        <v>2125650604.71164</v>
       </c>
     </row>
     <row r="15">
@@ -7262,22 +7262,22 @@
         <v>771180929.3941004</v>
       </c>
       <c r="D16" t="n">
-        <v>425274971.2724407</v>
+        <v>424670573.5846787</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2198006800.387751</v>
+        <v>2017282341.288148</v>
       </c>
       <c r="G16" t="n">
-        <v>183244578.3782287</v>
+        <v>183176237.6461791</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3577707279.43252</v>
+        <v>3396310081.913107</v>
       </c>
     </row>
     <row r="17">
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>17691648.3787363</v>
+        <v>17657630.50121331</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7436,13 +7436,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>10047534.54028208</v>
+        <v>10043688.0552611</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>27739182.91901838</v>
+        <v>27701318.5564744</v>
       </c>
     </row>
     <row r="22">
@@ -7931,13 +7931,13 @@
         <v>1646667351.289297</v>
       </c>
       <c r="G36" t="n">
-        <v>552016164.3829435</v>
+        <v>551853050.1726981</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2198683515.67224</v>
+        <v>2198520401.461995</v>
       </c>
     </row>
     <row r="37">
@@ -8294,13 +8294,13 @@
         <v>4649505875.760603</v>
       </c>
       <c r="G47" t="n">
-        <v>27013791.66169291</v>
+        <v>27006567.16135919</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>4676519667.422296</v>
+        <v>4676512442.921962</v>
       </c>
     </row>
     <row r="48">
@@ -8318,22 +8318,22 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>7745972.435273441</v>
+        <v>7738157.338810182</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>229757262.4026999</v>
+        <v>229668305.5270976</v>
       </c>
       <c r="G48" t="n">
-        <v>2314235.074346514</v>
+        <v>2313351.402181396</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>239817469.9123198</v>
+        <v>239719814.2680892</v>
       </c>
     </row>
     <row r="49">
@@ -8348,25 +8348,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>70435.77251545069</v>
+        <v>70439.38449902159</v>
       </c>
       <c r="D49" t="n">
-        <v>146601108.8743423</v>
+        <v>146329694.7608774</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>63918277.99525587</v>
+        <v>63893499.38381829</v>
       </c>
       <c r="G49" t="n">
-        <v>80499382.57091695</v>
+        <v>80468693.11002333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>291089205.2130306</v>
+        <v>290762326.6392181</v>
       </c>
     </row>
     <row r="50">
@@ -8384,7 +8384,7 @@
         <v>2835069363.81169</v>
       </c>
       <c r="D50" t="n">
-        <v>2275645370.143687</v>
+        <v>2273346736.939631</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -8393,13 +8393,13 @@
         <v>7260715462.353046</v>
       </c>
       <c r="G50" t="n">
-        <v>733918356.0735105</v>
+        <v>733658443.9675256</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>13105348552.38194</v>
+        <v>13102790007.07189</v>
       </c>
     </row>
     <row r="51">
@@ -8417,7 +8417,7 @@
         <v>991805413.0775133</v>
       </c>
       <c r="D51" t="n">
-        <v>176269732.8179283</v>
+        <v>176112732.5492032</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -8426,13 +8426,13 @@
         <v>1130824590.998353</v>
       </c>
       <c r="G51" t="n">
-        <v>46684684.0637608</v>
+        <v>46666931.65749933</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>2345584420.957555</v>
+        <v>2345409668.282568</v>
       </c>
     </row>
     <row r="52">
@@ -8582,7 +8582,7 @@
         <v>134792808.3516003</v>
       </c>
       <c r="D56" t="n">
-        <v>742710702.850801</v>
+        <v>741787933.493623</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -8591,13 +8591,13 @@
         <v>1300988740.775733</v>
       </c>
       <c r="G56" t="n">
-        <v>316256988.2129377</v>
+        <v>316152648.4137304</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>2494749240.191072</v>
+        <v>2493722131.034687</v>
       </c>
     </row>
     <row r="57">
@@ -8612,25 +8612,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>58335953.25007542</v>
+        <v>57608532.1761839</v>
       </c>
       <c r="D57" t="n">
-        <v>5113525.748619992</v>
+        <v>5103388.851401196</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>877.7365391027062</v>
+        <v>877.3966879701775</v>
       </c>
       <c r="G57" t="n">
-        <v>2960408.22647416</v>
+        <v>2959262.02259107</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>66410764.96170868</v>
+        <v>65672060.44686414</v>
       </c>
     </row>
     <row r="58">
@@ -8714,7 +8714,7 @@
         <v>857650250.0368606</v>
       </c>
       <c r="D60" t="n">
-        <v>78046648.26917876</v>
+        <v>77928943.00207147</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -8723,13 +8723,13 @@
         <v>316562231.4796273</v>
       </c>
       <c r="G60" t="n">
-        <v>35551572.910765</v>
+        <v>35538263.68691607</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1287810702.696432</v>
+        <v>1287679688.205476</v>
       </c>
     </row>
     <row r="61">
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>2207870852.406487</v>
+        <v>2206400996.976586</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -8789,13 +8789,13 @@
         <v>4699468589.309033</v>
       </c>
       <c r="G62" t="n">
-        <v>465640202.7849696</v>
+        <v>465474002.6188861</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>7372979644.50049</v>
+        <v>7371343588.904506</v>
       </c>
     </row>
     <row r="63">
@@ -8855,13 +8855,13 @@
         <v>4000730113.1155</v>
       </c>
       <c r="G64" t="n">
-        <v>1392060481.671987</v>
+        <v>1391627827.998373</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>5392790594.787487</v>
+        <v>5392357941.113873</v>
       </c>
     </row>
     <row r="65">
@@ -8918,16 +8918,16 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>41406444.58682031</v>
+        <v>41390412.93714918</v>
       </c>
       <c r="G66" t="n">
-        <v>2454226.894068097</v>
+        <v>2453975.837266118</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>43860671.48088841</v>
+        <v>43844388.7744153</v>
       </c>
     </row>
     <row r="67">
@@ -9044,7 +9044,7 @@
         <v>16927148.92870053</v>
       </c>
       <c r="D70" t="n">
-        <v>46598158.71800169</v>
+        <v>46532748.18562557</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -9053,13 +9053,13 @@
         <v>76860602.84036654</v>
       </c>
       <c r="G70" t="n">
-        <v>19177429.367956</v>
+        <v>19170033.23829361</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>159563339.8550248</v>
+        <v>159490533.1929862</v>
       </c>
     </row>
     <row r="71">
@@ -9218,13 +9218,13 @@
         <v>3032372853.033728</v>
       </c>
       <c r="G75" t="n">
-        <v>904331858.5595999</v>
+        <v>904140782.0034729</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>3936704711.593328</v>
+        <v>3936513635.037201</v>
       </c>
     </row>
     <row r="76">
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>21265926.96263812</v>
+        <v>21233126.04019459</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -9284,13 +9284,13 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>9579274.460605571</v>
+        <v>9575565.579686465</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>30845201.42324369</v>
+        <v>30808691.61988105</v>
       </c>
     </row>
     <row r="78">
@@ -9338,25 +9338,25 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>307219362.3385053</v>
+        <v>303389299.1420747</v>
       </c>
       <c r="D79" t="n">
-        <v>100979984.0033045</v>
+        <v>100823303.9344605</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>67713060.91282356</v>
+        <v>67686815.445133</v>
       </c>
       <c r="G79" t="n">
-        <v>51993664.15535695</v>
+        <v>51975947.95488302</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>527906071.4099903</v>
+        <v>523875366.4765512</v>
       </c>
     </row>
     <row r="80">
@@ -9416,13 +9416,13 @@
         <v>130523759.4982921</v>
       </c>
       <c r="G81" t="n">
-        <v>8910697.668340098</v>
+        <v>8908037.342480849</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>139434457.1666322</v>
+        <v>139431796.840773</v>
       </c>
     </row>
     <row r="82">
@@ -9473,7 +9473,7 @@
         <v>2697192434.663378</v>
       </c>
       <c r="D83" t="n">
-        <v>689331642.0359846</v>
+        <v>688327523.7085592</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -9482,13 +9482,13 @@
         <v>11182857328.75006</v>
       </c>
       <c r="G83" t="n">
-        <v>312725362.4696099</v>
+        <v>312611824.3423964</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>14882106767.91903</v>
+        <v>14880989111.46439</v>
       </c>
     </row>
     <row r="84">
@@ -9638,7 +9638,7 @@
         <v>912249696.7945271</v>
       </c>
       <c r="D88" t="n">
-        <v>1151482628.879023</v>
+        <v>1150435548.600482</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -9647,13 +9647,13 @@
         <v>3080467310.690993</v>
       </c>
       <c r="G88" t="n">
-        <v>336018425.4641072</v>
+        <v>335900029.5234888</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>5480218061.828651</v>
+        <v>5479052585.609491</v>
       </c>
     </row>
     <row r="89">
@@ -9710,16 +9710,16 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>140221690.1737414</v>
+        <v>140167399.4700697</v>
       </c>
       <c r="G90" t="n">
-        <v>5945283.777569166</v>
+        <v>5942990.705708183</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>146166973.9513106</v>
+        <v>146110390.1757779</v>
       </c>
     </row>
     <row r="91">
@@ -9779,13 +9779,13 @@
         <v>3066532914.569443</v>
       </c>
       <c r="G92" t="n">
-        <v>344979336.5938218</v>
+        <v>344853035.7853482</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>3411512251.163265</v>
+        <v>3411385950.354792</v>
       </c>
     </row>
     <row r="93">
@@ -9944,13 +9944,13 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>174704365.8428735</v>
+        <v>174637823.093454</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>174704365.8428735</v>
+        <v>174637823.093454</v>
       </c>
     </row>
     <row r="98">
@@ -10172,16 +10172,16 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>39968882.94617655</v>
+        <v>39953407.88823488</v>
       </c>
       <c r="G104" t="n">
-        <v>1366699.258052077</v>
+        <v>1366263.273490341</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>41335582.20422863</v>
+        <v>41319671.16172522</v>
       </c>
     </row>
     <row r="105">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>15265995.55273783</v>
+        <v>15252424.61907046</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -10274,13 +10274,13 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>3963293.974741376</v>
+        <v>3961759.475916838</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>19229289.52747921</v>
+        <v>19214184.09498729</v>
       </c>
     </row>
     <row r="108">
@@ -10298,7 +10298,7 @@
         <v>2473987704.214796</v>
       </c>
       <c r="D108" t="n">
-        <v>312829996.2127462</v>
+        <v>312582065.2010871</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -10307,13 +10307,13 @@
         <v>3367960752.58817</v>
       </c>
       <c r="G108" t="n">
-        <v>86324333.83383764</v>
+        <v>86296299.66498218</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>6241102786.849549</v>
+        <v>6240826821.669035</v>
       </c>
     </row>
     <row r="109">
@@ -10328,25 +10328,25 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>89332354.67119992</v>
+        <v>88218423.55277395</v>
       </c>
       <c r="D109" t="n">
-        <v>18940225.66326296</v>
+        <v>18932717.85769441</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>66660.59303476363</v>
+        <v>66634.78129328687</v>
       </c>
       <c r="G109" t="n">
-        <v>2192600.841082891</v>
+        <v>2191751.915054501</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>110531841.7685805</v>
+        <v>109409528.1068162</v>
       </c>
     </row>
     <row r="110">
@@ -10691,25 +10691,25 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>51949719.96212066</v>
+        <v>51301932.12298515</v>
       </c>
       <c r="D120" t="n">
-        <v>8520477.10107418</v>
+        <v>8498243.277658716</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>39644820.83908883</v>
+        <v>39629471.25075036</v>
       </c>
       <c r="G120" t="n">
-        <v>6493346.474062399</v>
+        <v>6490832.441002313</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>106608364.3763461</v>
+        <v>105920479.0923965</v>
       </c>
     </row>
     <row r="121">
@@ -10967,13 +10967,13 @@
         <v>515238726.4426726</v>
       </c>
       <c r="G128" t="n">
-        <v>113256671.149738</v>
+        <v>113228837.7045802</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>628495397.5924107</v>
+        <v>628467564.1472528</v>
       </c>
     </row>
     <row r="129">
@@ -11087,10 +11087,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2024644095.294044</v>
+        <v>812391834.0411135</v>
       </c>
       <c r="D132" t="n">
-        <v>1435536287.855133</v>
+        <v>1434452477.478903</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -11099,13 +11099,13 @@
         <v>1824895563.077239</v>
       </c>
       <c r="G132" t="n">
-        <v>367759856.7816082</v>
+        <v>367637307.6785685</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>5652835803.008024</v>
+        <v>4439377182.275824</v>
       </c>
     </row>
     <row r="133">
@@ -11198,13 +11198,13 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>49277584.16875833</v>
+        <v>49258884.79372944</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>49277584.16875833</v>
+        <v>49258884.79372944</v>
       </c>
     </row>
     <row r="136">
@@ -11549,25 +11549,25 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2191787329.470241</v>
+        <v>2164460162.284015</v>
       </c>
       <c r="D146" t="n">
-        <v>444773708.7856682</v>
+        <v>444311964.117672</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>64907944.52180131</v>
+        <v>64882695.99251785</v>
       </c>
       <c r="G146" t="n">
-        <v>151080084.5908286</v>
+        <v>151027873.9863379</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>2852549067.368539</v>
+        <v>2824682696.380543</v>
       </c>
     </row>
     <row r="147">
@@ -11615,25 +11615,25 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>153668.36797171</v>
+        <v>153676.2481666827</v>
       </c>
       <c r="D148" t="n">
-        <v>1952029704.187203</v>
+        <v>1951816320.512891</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>58708808.31256747</v>
+        <v>58686010.19731768</v>
       </c>
       <c r="G148" t="n">
-        <v>68029119.09005977</v>
+        <v>68004991.27354892</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>2078921299.957802</v>
+        <v>2078660998.231924</v>
       </c>
     </row>
     <row r="149">
@@ -11693,13 +11693,13 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>6892998.289364409</v>
+        <v>6890385.158279982</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>6892998.289364409</v>
+        <v>6890385.158279982</v>
       </c>
     </row>
     <row r="151">
@@ -11750,7 +11750,7 @@
         <v>52849684.23546708</v>
       </c>
       <c r="D152" t="n">
-        <v>146745201.4690755</v>
+        <v>146591575.027932</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -11759,13 +11759,13 @@
         <v>1443866969.734998</v>
       </c>
       <c r="G152" t="n">
-        <v>50523575.29125688</v>
+        <v>50506204.37197229</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1693985430.730797</v>
+        <v>1693814433.370369</v>
       </c>
     </row>
     <row r="153">
@@ -11924,13 +11924,13 @@
         <v>736775253.5752609</v>
       </c>
       <c r="G157" t="n">
-        <v>1051610647.463191</v>
+        <v>1051360161.894648</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1788385901.038452</v>
+        <v>1788135415.469909</v>
       </c>
     </row>
     <row r="158">
@@ -12011,25 +12011,25 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>14.60145735862537</v>
+        <v>14.60220612906129</v>
       </c>
       <c r="D160" t="n">
-        <v>51891101.4048551</v>
+        <v>51789890.82406195</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>12185727.26774324</v>
+        <v>12181009.22016434</v>
       </c>
       <c r="G160" t="n">
-        <v>29728243.40236412</v>
+        <v>29716799.27323752</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>93805086.67641982</v>
+        <v>93687713.91966993</v>
       </c>
     </row>
     <row r="161">
@@ -12047,7 +12047,7 @@
         <v>8015337.35609397</v>
       </c>
       <c r="D161" t="n">
-        <v>11355836.07437777</v>
+        <v>11335781.73588492</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -12056,13 +12056,13 @@
         <v>105634.5662736499</v>
       </c>
       <c r="G161" t="n">
-        <v>5856725.916154933</v>
+        <v>5854458.322811806</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>25333533.91290032</v>
+        <v>25311211.98106435</v>
       </c>
     </row>
     <row r="162">
@@ -12080,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>440221477.5979795</v>
+        <v>439854422.1784795</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -12089,13 +12089,13 @@
         <v>2078009637.451496</v>
       </c>
       <c r="G162" t="n">
-        <v>110460006.4859099</v>
+        <v>110418502.6274748</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>2628691121.535386</v>
+        <v>2628282562.257451</v>
       </c>
     </row>
     <row r="163">
@@ -13442,13 +13442,13 @@
         <v>1900670090.947202</v>
       </c>
       <c r="G13" t="n">
-        <v>332843584.3847156</v>
+        <v>332723610.9992012</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2233513675.331917</v>
+        <v>2233393701.946403</v>
       </c>
     </row>
     <row r="14">
@@ -13466,7 +13466,7 @@
         <v>1221433265.567402</v>
       </c>
       <c r="D14" t="n">
-        <v>834108722.3351675</v>
+        <v>833894307.5478402</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -13475,13 +13475,13 @@
         <v>586339425.5870962</v>
       </c>
       <c r="G14" t="n">
-        <v>118712304.9985751</v>
+        <v>118669687.7347268</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2760593718.488241</v>
+        <v>2760336686.437066</v>
       </c>
     </row>
     <row r="15">
@@ -13532,22 +13532,22 @@
         <v>1004869116.959594</v>
       </c>
       <c r="D16" t="n">
-        <v>506586274.4060569</v>
+        <v>506211668.4247549</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2356228598.723887</v>
+        <v>2126499838.636096</v>
       </c>
       <c r="G16" t="n">
-        <v>203772882.719027</v>
+        <v>203698425.7184475</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4071456872.808565</v>
+        <v>3841279049.738892</v>
       </c>
     </row>
     <row r="17">
@@ -13697,7 +13697,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>21953545.56337618</v>
+        <v>21932461.26631591</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -13706,13 +13706,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>11183077.23651789</v>
+        <v>11178886.50386333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>33136622.79989406</v>
+        <v>33111347.77017925</v>
       </c>
     </row>
     <row r="22">
@@ -14201,13 +14201,13 @@
         <v>1811646370.101917</v>
       </c>
       <c r="G36" t="n">
-        <v>609571377.6041738</v>
+        <v>609393665.2138829</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2421217747.706091</v>
+        <v>2421040035.3158</v>
       </c>
     </row>
     <row r="37">
@@ -14564,13 +14564,13 @@
         <v>4950814183.823895</v>
       </c>
       <c r="G47" t="n">
-        <v>29754404.61282363</v>
+        <v>29746533.54370566</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>4980568588.436719</v>
+        <v>4980560717.367601</v>
       </c>
     </row>
     <row r="48">
@@ -14588,22 +14588,22 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>9296854.408497756</v>
+        <v>9292010.607902771</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>255823890.5113559</v>
+        <v>255726972.2908508</v>
       </c>
       <c r="G48" t="n">
-        <v>2575554.231642318</v>
+        <v>2574591.473753471</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>267696299.151496</v>
+        <v>267593574.372507</v>
       </c>
     </row>
     <row r="49">
@@ -14618,25 +14618,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>79192.33601442508</v>
+        <v>79195.45192008157</v>
       </c>
       <c r="D49" t="n">
-        <v>178674880.4808883</v>
+        <v>178506657.8811457</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>71169226.68543568</v>
+        <v>71142231.28991313</v>
       </c>
       <c r="G49" t="n">
-        <v>89584355.16327716</v>
+        <v>89550919.09756626</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>339507654.6656156</v>
+        <v>339279003.7205452</v>
       </c>
     </row>
     <row r="50">
@@ -14654,7 +14654,7 @@
         <v>4425459111.226663</v>
       </c>
       <c r="D50" t="n">
-        <v>2710212558.77474</v>
+        <v>2708787864.795106</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -14663,13 +14663,13 @@
         <v>8422274974.073162</v>
       </c>
       <c r="G50" t="n">
-        <v>814753685.2841105</v>
+        <v>814470511.9079181</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>16372700329.35868</v>
+        <v>16370992462.00285</v>
       </c>
     </row>
     <row r="51">
@@ -14687,7 +14687,7 @@
         <v>1118005625.402117</v>
       </c>
       <c r="D51" t="n">
-        <v>205548163.2622397</v>
+        <v>205450854.4192026</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -14696,13 +14696,13 @@
         <v>1540941334.98001</v>
       </c>
       <c r="G51" t="n">
-        <v>51948839.44531854</v>
+        <v>51929498.25765993</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>2916443963.089686</v>
+        <v>2916327313.05899</v>
       </c>
     </row>
     <row r="52">
@@ -14852,7 +14852,7 @@
         <v>746626619.4004967</v>
       </c>
       <c r="D56" t="n">
-        <v>869078538.9972538</v>
+        <v>868506606.1001557</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -14861,13 +14861,13 @@
         <v>1527739071.169963</v>
       </c>
       <c r="G56" t="n">
-        <v>350322466.4624067</v>
+        <v>350208788.597727</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>3493766696.03012</v>
+        <v>3493081085.268342</v>
       </c>
     </row>
     <row r="57">
@@ -14882,25 +14882,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>76952265.35560679</v>
+        <v>76501409.41965269</v>
       </c>
       <c r="D57" t="n">
-        <v>6377352.920076165</v>
+        <v>6371070.066241852</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>977.3046289771761</v>
+        <v>976.9343620664716</v>
       </c>
       <c r="G57" t="n">
-        <v>3296275.130015405</v>
+        <v>3295026.344691807</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>86626870.71032734</v>
+        <v>86168482.76494841</v>
       </c>
     </row>
     <row r="58">
@@ -14984,7 +14984,7 @@
         <v>949961004.0002382</v>
       </c>
       <c r="D60" t="n">
-        <v>95316146.84230922</v>
+        <v>95243193.06041701</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -14993,13 +14993,13 @@
         <v>358770558.0567805</v>
       </c>
       <c r="G60" t="n">
-        <v>39539346.06803659</v>
+        <v>39524845.71285875</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1443587054.967365</v>
+        <v>1443499600.830294</v>
       </c>
     </row>
     <row r="61">
@@ -15050,7 +15050,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>2591670515.630512</v>
+        <v>2590759498.519032</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -15059,13 +15059,13 @@
         <v>4973282138.740775</v>
       </c>
       <c r="G62" t="n">
-        <v>517056783.8093336</v>
+        <v>516875709.2804068</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>8082009438.180621</v>
+        <v>8080917346.540214</v>
       </c>
     </row>
     <row r="63">
@@ -15125,13 +15125,13 @@
         <v>4466477062.895829</v>
       </c>
       <c r="G64" t="n">
-        <v>1539338128.858552</v>
+        <v>1538866754.118175</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>6005815191.754381</v>
+        <v>6005343817.014004</v>
       </c>
     </row>
     <row r="65">
@@ -15188,16 +15188,16 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>46104125.87471173</v>
+        <v>46086659.44564293</v>
       </c>
       <c r="G66" t="n">
-        <v>2662594.68467986</v>
+        <v>2662321.15912797</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>48766720.55939159</v>
+        <v>48748980.6047709</v>
       </c>
     </row>
     <row r="67">
@@ -15314,7 +15314,7 @@
         <v>29015740.08553806</v>
       </c>
       <c r="D70" t="n">
-        <v>57030898.03258886</v>
+        <v>56990356.55275796</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -15323,13 +15323,13 @@
         <v>87663110.93857871</v>
       </c>
       <c r="G70" t="n">
-        <v>21350263.73976873</v>
+        <v>21342205.68106724</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>195060012.7964744</v>
+        <v>195011413.257942</v>
       </c>
     </row>
     <row r="71">
@@ -15521,13 +15521,13 @@
         <v>3183724758.661142</v>
       </c>
       <c r="G76" t="n">
-        <v>990989645.9573463</v>
+        <v>990781468.6840922</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>4174714404.618488</v>
+        <v>4174506227.345234</v>
       </c>
     </row>
     <row r="77">
@@ -15578,7 +15578,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>26185083.36818747</v>
+        <v>26164753.34047827</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -15587,13 +15587,13 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>10666070.94444293</v>
+        <v>10662030.13100033</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>36851154.3126304</v>
+        <v>36826783.4714786</v>
       </c>
     </row>
     <row r="79">
@@ -15641,25 +15641,25 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>405259291.7082416</v>
+        <v>402885417.9541403</v>
       </c>
       <c r="D80" t="n">
-        <v>119914972.7512848</v>
+        <v>119817862.3682899</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>75382607.93759878</v>
+        <v>75354013.87164921</v>
       </c>
       <c r="G80" t="n">
-        <v>57650502.97210877</v>
+        <v>57631201.23053543</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>658207375.3692338</v>
+        <v>655688495.4246148</v>
       </c>
     </row>
     <row r="81">
@@ -15719,13 +15719,13 @@
         <v>149757393.7450894</v>
       </c>
       <c r="G82" t="n">
-        <v>9842497.540440261</v>
+        <v>9839599.124252679</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>159599891.2855296</v>
+        <v>159596992.869342</v>
       </c>
     </row>
     <row r="83">
@@ -15776,7 +15776,7 @@
         <v>2933516177.783658</v>
       </c>
       <c r="D84" t="n">
-        <v>799026739.3736469</v>
+        <v>798404386.3451608</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -15785,13 +15785,13 @@
         <v>11632238683.1477</v>
       </c>
       <c r="G84" t="n">
-        <v>347449077.4132673</v>
+        <v>347325378.0007764</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>15712230677.71827</v>
+        <v>15711484625.27729</v>
       </c>
     </row>
     <row r="85">
@@ -15941,7 +15941,7 @@
         <v>1087728491.901122</v>
       </c>
       <c r="D89" t="n">
-        <v>1340075915.726344</v>
+        <v>1339426934.859628</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -15950,13 +15950,13 @@
         <v>3293254072.602161</v>
       </c>
       <c r="G89" t="n">
-        <v>372967810.3551036</v>
+        <v>372838818.3710429</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>6094026290.584731</v>
+        <v>6093248317.733954</v>
       </c>
     </row>
     <row r="90">
@@ -16013,16 +16013,16 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>156130247.8067085</v>
+        <v>156071098.2653807</v>
       </c>
       <c r="G91" t="n">
-        <v>6618910.611673531</v>
+        <v>6616412.317497252</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>162749158.4183821</v>
+        <v>162687510.5828779</v>
       </c>
     </row>
     <row r="92">
@@ -16082,13 +16082,13 @@
         <v>3345759104.605494</v>
       </c>
       <c r="G93" t="n">
-        <v>383389885.6890098</v>
+        <v>383252281.3776762</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>3729148990.294503</v>
+        <v>3729011385.98317</v>
       </c>
     </row>
     <row r="94">
@@ -16247,13 +16247,13 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>194414952.1366876</v>
+        <v>194342454.0322118</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>194414952.1366876</v>
+        <v>194342454.0322118</v>
       </c>
     </row>
     <row r="99">
@@ -16475,16 +16475,16 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>44503468.69454916</v>
+        <v>44486608.67032093</v>
       </c>
       <c r="G105" t="n">
-        <v>1512417.532446331</v>
+        <v>1511942.528714408</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>46015886.22699549</v>
+        <v>45998551.19903534</v>
       </c>
     </row>
     <row r="106">
@@ -16568,7 +16568,7 @@
         <v>4584617.094695453</v>
       </c>
       <c r="D108" t="n">
-        <v>17939713.8843772</v>
+        <v>17931302.61307919</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -16577,13 +16577,13 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>4412941.176507682</v>
+        <v>4411269.345135068</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>26937272.15558033</v>
+        <v>26927189.05290971</v>
       </c>
     </row>
     <row r="109">
@@ -16601,7 +16601,7 @@
         <v>2582969545.753955</v>
       </c>
       <c r="D109" t="n">
-        <v>355572762.2428184</v>
+        <v>355419094.4810145</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -16610,13 +16610,13 @@
         <v>3812108331.641644</v>
       </c>
       <c r="G109" t="n">
-        <v>95578018.00155772</v>
+        <v>95547474.86770304</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>6846228657.639974</v>
+        <v>6846044446.744317</v>
       </c>
     </row>
     <row r="110">
@@ -16631,25 +16631,25 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>117840314.0729189</v>
+        <v>117149899.0231743</v>
       </c>
       <c r="D110" t="n">
-        <v>21622485.87350532</v>
+        <v>21617832.53195657</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>74222.51266132492</v>
+        <v>74194.39088048485</v>
       </c>
       <c r="G110" t="n">
-        <v>2441357.768796714</v>
+        <v>2440432.866708425</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>141978380.2278822</v>
+        <v>141282358.8127198</v>
       </c>
     </row>
     <row r="111">
@@ -16994,25 +16994,25 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>68528041.6709657</v>
+        <v>68126542.45270517</v>
       </c>
       <c r="D121" t="n">
-        <v>10414029.41025744</v>
+        <v>10400248.87567352</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>44142640.8010779</v>
+        <v>44125917.47556563</v>
       </c>
       <c r="G121" t="n">
-        <v>7230030.910178881</v>
+        <v>7227291.879510086</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>130314742.7924799</v>
+        <v>129880000.6834544</v>
       </c>
     </row>
     <row r="122">
@@ -17270,13 +17270,13 @@
         <v>621614539.260121</v>
       </c>
       <c r="G129" t="n">
-        <v>124500720.5732527</v>
+        <v>124470396.1271999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>746115259.8333737</v>
+        <v>746084935.3873209</v>
       </c>
     </row>
     <row r="130">
@@ -17390,10 +17390,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2214097325.319032</v>
+        <v>1001845064.066102</v>
       </c>
       <c r="D133" t="n">
-        <v>1643721590.824049</v>
+        <v>1643049844.624892</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -17402,13 +17402,13 @@
         <v>2378673863.6001</v>
       </c>
       <c r="G133" t="n">
-        <v>407494955.8292822</v>
+        <v>407361438.988558</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>6643987735.572463</v>
+        <v>5430930211.279652</v>
       </c>
     </row>
     <row r="134">
@@ -17501,13 +17501,13 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>54830204.55855598</v>
+        <v>54809831.65157054</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>54830204.55855598</v>
+        <v>54809831.65157054</v>
       </c>
     </row>
     <row r="137">
@@ -17852,25 +17852,25 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2891180324.77426</v>
+        <v>2874242936.451978</v>
       </c>
       <c r="D147" t="n">
-        <v>526108096.1325513</v>
+        <v>525821906.5623922</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>72272303.26627634</v>
+        <v>72244798.32711643</v>
       </c>
       <c r="G147" t="n">
-        <v>167590743.8714169</v>
+        <v>167533860.5912378</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>3657151468.044504</v>
+        <v>3639843501.932725</v>
       </c>
     </row>
     <row r="148">
@@ -17918,25 +17918,25 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>181386.7968841937</v>
+        <v>181393.9337382741</v>
       </c>
       <c r="D149" t="n">
-        <v>2286003572.026678</v>
+        <v>2285871316.721391</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>65359208.66493109</v>
+        <v>65334371.64268081</v>
       </c>
       <c r="G149" t="n">
-        <v>75525576.41372581</v>
+        <v>75499289.23777594</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>2427069743.902219</v>
+        <v>2426886371.535586</v>
       </c>
     </row>
     <row r="150">
@@ -17996,13 +17996,13 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>7669448.236663164</v>
+        <v>7666601.239025997</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>7669448.236663164</v>
+        <v>7666601.239025997</v>
       </c>
     </row>
     <row r="152">
@@ -18053,7 +18053,7 @@
         <v>60551696.24306175</v>
       </c>
       <c r="D153" t="n">
-        <v>174062770.3404473</v>
+        <v>173967552.5973888</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -18062,13 +18062,13 @@
         <v>1523510916.248781</v>
       </c>
       <c r="G153" t="n">
-        <v>56036068.29349809</v>
+        <v>56017142.7346337</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1814161451.125788</v>
+        <v>1814047307.823865</v>
       </c>
     </row>
     <row r="154">
@@ -18227,13 +18227,13 @@
         <v>790088783.3426948</v>
       </c>
       <c r="G158" t="n">
-        <v>1155216765.129125</v>
+        <v>1154943861.934166</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1945305548.47182</v>
+        <v>1945032645.276861</v>
       </c>
     </row>
     <row r="159">
@@ -18314,25 +18314,25 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>21.13530734140502</v>
+        <v>21.1361389322762</v>
       </c>
       <c r="D161" t="n">
-        <v>62960476.80213422</v>
+        <v>62897746.43485475</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>13568228.50844968</v>
+        <v>13563088.21126729</v>
       </c>
       <c r="G161" t="n">
-        <v>33094386.05117886</v>
+        <v>33081917.71050623</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>109623112.4970701</v>
+        <v>109542773.4927672</v>
       </c>
     </row>
     <row r="162">
@@ -18350,7 +18350,7 @@
         <v>10485495.16764931</v>
       </c>
       <c r="D162" t="n">
-        <v>14093408.05024763</v>
+        <v>14080978.36148046</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -18359,13 +18359,13 @@
         <v>346712.0264263992</v>
       </c>
       <c r="G162" t="n">
-        <v>6521188.465866027</v>
+        <v>6518717.930450328</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>31446803.71018936</v>
+        <v>31431903.4860065</v>
       </c>
     </row>
     <row r="163">
@@ -18383,7 +18383,7 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>510147499.0530168</v>
+        <v>509919997.9252028</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -18392,13 +18392,13 @@
         <v>2346762980.504397</v>
       </c>
       <c r="G163" t="n">
-        <v>122865356.134973</v>
+        <v>122820137.8190598</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>2979775835.692387</v>
+        <v>2979503116.24866</v>
       </c>
     </row>
     <row r="164">
